--- a/docs/ST4/ST4_03.09.2024_output.xlsx
+++ b/docs/ST4/ST4_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2133 +505,2527 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731439791.8925204</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731439793.0685992</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731439791.8925204.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731439793.0685992.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>246.18</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>247.33</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1.150000000000006</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731439795.6354525</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731439796.3824105</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731439795.6354525.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731439796.3824105.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>247.45</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>247.34</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1099999999999852</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731439796.5171812</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731439800.3471339</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731439796.5171812.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731439800.3471339.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>248.32</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>246.36</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.95999999999998</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731439802.5000458</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731439803.5492694</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439802.5000458.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439803.5492694.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>246.18</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>247.33</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.150000000000006</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731439805.8372934</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731439806.4742396</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439805.8372934.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439806.4742396.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>247.45</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>247.34</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1099999999999852</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731439806.5920384</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731439809.8060782</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439806.5920384.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439809.8060782.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>248.32</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>246.36</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.95999999999998</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731439812.512198</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731439815.2095587</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439812.512198.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439815.2095587.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>247.11</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>247.15</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731439816.2919548</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731439817.341643</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439816.2919548.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439817.341643.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>247.67</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>248.03</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.3600000000000136</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731439817.4359426</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731439818.60623</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439817.4359426.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439818.60623.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>249.02</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>249.48</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.4599999999999795</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731439818.6211898</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731439820.191097</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439818.6211898.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731439820.191097.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>249.48</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>247.86</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-1.619999999999976</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731439823.304438</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731439823.6917582</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731439823.304438.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731439823.6917582.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>124.57</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>124.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731439826.3207605</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731439826.8978732</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731439826.3207605.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731439826.8978732.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>125.03</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>124.75</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731439829.3153694</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731439830.0247812</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731439829.3153694.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731439830.0247812.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>124.99</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>124.22</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.769999999999996</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731439832.111372</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731439832.111372.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731439832.111372.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>123.03</v>
       </c>
-      <c r="J16" t="n">
-        <v>123.03</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="L16" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3700000000000045</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731439834.0567935</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731439835.2515135</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731439834.0567935.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731439835.2515135.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6157.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6210.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-53</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731439840.2484753</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731439840.5186532</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731439840.2484753.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731439840.5186532.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6218.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6207</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>11.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731439845.2537522</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731439845.303615</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731439845.2537522.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731439845.303615.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>464.05</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>462.95</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731439846.242794</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731439846.3280795</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731439846.242794.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731439846.3280795.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>466.75</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>465.15</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731439849.0234683</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731439852.3168993</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731439849.0234683.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731439852.3168993.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>466.65</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>467.7</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-1.050000000000011</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731439856.5563633</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731439856.6999762</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731439856.5563633.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731439856.6999762.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>194.66</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>194.51</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731439858.123134</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731439858.435331</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731439858.123134.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731439858.435331.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>195.08</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>194.66</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731439858.791471</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731439859.1424341</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731439858.791471.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731439859.1424341.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>195.98</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>195.35</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.6299999999999955</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731439860.7592273</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731439862.1436698</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731439860.7592273.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731439862.1436698.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>195.97</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>194.45</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.52000000000001</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.7799999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731439867.0594158</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731439867.1484666</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731439867.0594158.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731439867.1484666.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>967.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>965.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731439870.1599529</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731439870.4566534</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731439870.1599529.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731439870.4566534.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>970</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>964.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>5.200000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731439871.413701</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731439872.2390997</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731439871.413701.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731439872.2390997.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>967.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>968.2</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.6000000000000227</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731439872.485566</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731439873.4433565</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731439872.485566.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731439873.4433565.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>971.6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>970.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731439877.6879797</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731439878.5628693</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731439877.6879797.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731439878.5628693.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.975</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>11.988</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.0129999999999999</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731439880.073058</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731439880.2747178</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731439880.073058.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731439880.2747178.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.996</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.982</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.01400000000000112</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731439882.447871</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731439883.407799</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731439882.447871.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731439883.407799.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>11.998</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>12.039</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.04100000000000037</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731439884.7615511</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731439885.5484664</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731439884.7615511.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731439885.5484664.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>12.049</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>12.053</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.004000000000001336</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731439886.2401054</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731439886.2401054.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+          <t>./test_images/CNY1731439886.2401054.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>12.074</v>
       </c>
-      <c r="J34" t="n">
-        <v>12.074</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>12.071</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731439888.5893195</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731439891.8085306</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731439888.5893195.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731439891.8085306.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>104.26</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>106.12</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-1.859999999999999</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1.78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731439891.822494</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731439893.890905</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731439891.822494.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731439893.890905.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>106.12</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>106.3</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731439895.6554682</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731439896.360308</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731439895.6554682.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731439896.360308.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>107.34</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>107.02</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.3200000000000074</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731439896.374253</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731439898.0636866</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731439896.374253.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731439898.0636866.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>107.02</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>105.78</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-1.239999999999995</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-1.16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731439900.590074</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731439902.0006673</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731439900.590074.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731439902.0006673.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>128.84</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>129.66</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.8199999999999932</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731439903.4978297</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731439904.2991638</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731439903.4978297.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731439904.2991638.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>130.76</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>130.68</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731439907.028968</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731439907.6057315</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731439907.028968.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731439907.6057315.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>130.66</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>129.78</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.8799999999999955</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731439911.4767232</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731439912.0886815</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731439911.4767232.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731439912.0886815.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>41.3</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>41.31</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731439914.5014093</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731439915.2240307</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731439914.5014093.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731439915.2240307.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>41.615</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>41.645</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731439923.4624174</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731439924.0087974</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731439923.4624174.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731439924.0087974.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1183.2</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1180.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>2.400000000000091</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731439924.2563956</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731439924.885914</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731439924.2563956.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731439924.885914.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1187.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1187.6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2624,1217 +3033,1442 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731439925.46924</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731439926.2890778</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731439925.46924.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731439926.2890778.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1198</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1201.6</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-3.599999999999909</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731439928.596529</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731439930.4544687</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731439928.596529.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731439930.4544687.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1204.2</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1190.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>13.60000000000014</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731439931.5706403</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731439932.0410447</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731439931.5706403.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731439932.0410447.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1160.6</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1165.4</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>4.800000000000182</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731439932.170219</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731439932.9233177</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439932.170219.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439932.9233177.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>47.2</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>47.07</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731439933.6759636</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731439933.9196236</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439933.6759636.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439933.9196236.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>47.7</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>47.5</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731439934.5760977</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731439935.2715163</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439934.5760977.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439935.2715163.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>47.99</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>47.84</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731439935.2879844</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731439938.0920768</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439935.2879844.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439938.0920768.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>47.84</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>48.15</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3099999999999952</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731439938.1744635</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731439939.0744166</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439938.1744635.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439939.0744166.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>48.27</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>48.39</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.1199999999999974</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731439939.5435426</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731439940.1484532</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439939.5435426.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731439940.1484532.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>48.58</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>48.64</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731439944.8510795</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731439946.7192097</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731439944.8510795.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731439946.7192097.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>87</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>87.91</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.9099999999999966</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731439955.8786497</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731439956.855326</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731439955.8786497.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731439956.855326.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>47.29</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>47.73</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731439961.18459</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731439962.9083805</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731439961.18459.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731439962.9083805.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>47.86</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>47.18</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.6799999999999997</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731439965.4740584</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731439965.5511258</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731439965.4740584.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731439965.5511258.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>139.56</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>139.42</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731439969.9350162</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731439970.853916</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731439969.9350162.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731439970.853916.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>140.2</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>139.8</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731439979.1873097</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731439979.5946095</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731439979.1873097.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731439979.5946095.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.2806</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.2801</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.0005000000000000004</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731439984.9297488</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731439984.9867287</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731439984.9297488.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731439984.9867287.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>15.468</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>15.461</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.006999999999999673</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731439992.743672</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731439992.834444</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731439992.743672.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731439992.834444.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>15.075</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>15.086</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.01100000000000101</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731439994.2663116</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731439994.9421518</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731439994.2663116.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731439994.9421518.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>646.95</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>646.5</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.4500000000000455</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731439995.624545</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731439995.8526063</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731439995.624545.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731439995.8526063.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>651.45</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>650.25</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731439996.52217</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731439996.7039473</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731439996.52217.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731439996.7039473.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>650.2</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>652.5</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>2.299999999999955</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731439997.2266762</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731439997.6334016</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731439997.2266762.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731439997.6334016.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>653.9</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>653.05</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.8500000000000227</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731439999.7634757</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731440000.3868384</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731439999.7634757.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440000.3868384.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>654</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>652.8</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731440005.3713424</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731440005.7023773</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440005.3713424.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440005.7023773.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>115.28</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>114.75</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.5300000000000011</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731440005.7183585</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731440007.2909846</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440005.7183585.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440007.2909846.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>114.75</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>114.11</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.6400000000000006</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731440013.3655229</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731440013.3655229.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731440013.3655229.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>112.68</v>
       </c>
-      <c r="J70" t="n">
-        <v>112.68</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
+      <c r="L70" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.08000000000001251</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3848,7 +4482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3877,6 +4511,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3893,6 +4537,12 @@
       <c r="D2" t="n">
         <v>-0.2228571428571432</v>
       </c>
+      <c r="E2" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3909,6 +4559,12 @@
       <c r="D3" t="n">
         <v>0.1016666666666666</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3925,6 +4581,12 @@
       <c r="D4" t="n">
         <v>3.4400000000001</v>
       </c>
+      <c r="E4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3933,13 +4595,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04400000000000048</v>
+        <v>-0.04100000000000037</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.008800000000000096</v>
+        <v>-0.008200000000000074</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3957,6 +4625,12 @@
       <c r="D6" t="n">
         <v>1.200000000000023</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3965,13 +4639,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.11999999999999</v>
+        <v>1.489999999999995</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2799999999999976</v>
+        <v>0.3724999999999987</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -3989,6 +4669,12 @@
       <c r="D8" t="n">
         <v>-0.6499999999999986</v>
       </c>
+      <c r="E8" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4005,6 +4691,12 @@
       <c r="D9" t="n">
         <v>0.6800000000000068</v>
       </c>
+      <c r="E9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4021,6 +4713,12 @@
       <c r="D10" t="n">
         <v>1.900000000000006</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4029,13 +4727,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1099999999999994</v>
+        <v>-0.1900000000000119</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.03666666666666648</v>
+        <v>-0.06333333333333731</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
@@ -4053,6 +4757,12 @@
       <c r="D12" t="n">
         <v>0.306666666666653</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4069,6 +4779,12 @@
       <c r="D13" t="n">
         <v>0.04666666666666212</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.09000000000000008</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4085,6 +4801,12 @@
       <c r="D14" t="n">
         <v>0.5500000000000114</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4101,6 +4823,12 @@
       <c r="D15" t="n">
         <v>0.269999999999996</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4117,6 +4845,12 @@
       <c r="D16" t="n">
         <v>0.120000000000001</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.4900000000000002</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4133,6 +4867,12 @@
       <c r="D17" t="n">
         <v>0.009000000000000341</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4149,6 +4889,12 @@
       <c r="D18" t="n">
         <v>-0.02000000000000313</v>
       </c>
+      <c r="E18" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4165,6 +4911,12 @@
       <c r="D19" t="n">
         <v>-20.75</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4181,6 +4933,12 @@
       <c r="D20" t="n">
         <v>0.0005000000000000004</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4197,6 +4955,12 @@
       <c r="D21" t="n">
         <v>-0.9099999999999966</v>
       </c>
+      <c r="E21" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4211,6 +4975,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
